--- a/data/Map020.xlsx
+++ b/data/Map020.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77617DC-84D7-428F-8921-2C77A1AAE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>でかとら</t>
   </si>
@@ -310,22 +315,277 @@
   <si>
     <t>・・・！
 何か落ちている。</t>
+  </si>
+  <si>
+    <t>※Avoid the succubi as you search for ways to escape.
+Clear the room by finding all the sparkles.</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Walk around the room, and come up with ideas to escape.
+Collect all the sparkles (ideas) to clear the room.</t>
+  </si>
+  <si>
+    <t>The succubi run faster than you, so they will catch up to you.
+If you are spotted, hide under a desk or shelf.
+You are safe while hidden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a succubus catches you, the timing bar will appear, and you will take
+energy damage. Stop in the critical spot, and you will take half damage.
+If your energy reaches 0, you will cum, and the game will end.
+</t>
+  </si>
+  <si>
+    <t>When you have 'Easy Action' turned on,
+only half the ideas are needed.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;If only I still had my magic power...
+This is all your fault, you know...!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;The door's been sealed as well.
+We need to search for another way out of here.</t>
+  </si>
+  <si>
+    <t>How to move forward...</t>
+  </si>
+  <si>
+    <t>See answer</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Walk around the room, and pick up the escape ideas.
+(Sparkles)
+If an enemy spots you, hide under a desk or shelf.</t>
+  </si>
+  <si>
+    <t>You are safe while hidden.
+Use skills or items to restore your energy when it is low.</t>
+  </si>
+  <si>
+    <t>The door is locked...
+There's no space to squeeze through.</t>
+  </si>
+  <si>
+    <t>No use...
+The grate is too fine to get through.</t>
+  </si>
+  <si>
+    <t>...!
+Something is falling.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hide under the desks or the bookshelves
+as you make your way around the room.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...
+Don't get eaten.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;These guys seem to lose interest the moment you
+duck under a desk. Tiny pea brains.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I really don't think we should hide until the shrink
+spell wears off. We should look around for a way out.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Let's not wait for the spell to break.
+We should look for a way out.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Luckily, they're all succubi. They wouldn't waste a meal
+by physical harming you. If you're caught, just try your
+hardest not to ejaculate.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;I'm the only one who can make you cum.
+Don't ejaculate for small fry like these guys.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Haah, so this is what it's like to be shrunk.
+How am I supposed to fight with a  body like this?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;This turn of events hasn't gotten you excited, has it?
+It takes a real perv to get turned on by being shrunk.
+You're starting to make me nervous.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Are you hiding here too?
+Ahhh.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Here, take this and go somewhere else.
+Keep looking.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Get the hell outta here!
+Shoo! Shoo!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Found you!
+C'mere you-!!
+I'll crush you♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Teeny! Puny!
+If you don't like this, just break free♥
+Ahahahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Aren't they soft-? Doesn't it feel good-?
+Just let yourself get squished♥
+Hora! Hoooooora!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Roar!
+Crush! Crush!
+Cum while I crush you♥ Kukuku♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Cum for me, cum for me!
+Stupid, stupid pipsqueak♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Puurrrrrr♥
+Oh, you came, you came.
+Did my tits really feel that good?</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora, stand still.
+You don't want my ass to crush you, do you?
+Ahahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;How about some full-body sex?
+Oh my♥
+Welcome to my womb♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhh-♥ This dildo is the greatest-♥
+It's hitting all the right spots♥
+Don't you dare move. You're dead if you run♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ha! Are you already about to cum?
+Weakling♥ Cum for me then♥
+How many droplets will I get? Ah ha ha♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Mmm? Did you cum?
+You're so small, I couldn't tell♥
+Kukuku♥ We'll just have to go deeper♥</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahhhm...♥
+Your penis is so small, I'll suck on your entire body♥
+Sluuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora hora♥ Mmm♥ Sluuurp...♥
+I can suck on your entire waist♥
+Tee hee♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll make you melt♥
+You'll feel so nice and slimy♥ Hee♥
+Slurp♥ Sluuuuuurp♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;If you ejaculate, I'll eat you♥ Smack♥
+Hora♥ Shouldn't you run away then?
+Hurry... Slurp♥ You'd better run♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Your little body is trembling...
+Mmph♥
+Are you cumming? That's good♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Ahaa...♥
+Did you cum? So cute♥
+Your tiny dick is squirting♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Gotcha♥
+Hoora♥ Can you escape my boobs?
+Your arms and legs are caught deep in my flesh♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hora hora♥
+Isn't this warmth and softness just heavenly?
+There's no need for you to run-♥ Ahaa♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I need to replenish my mana now.
+Let me suck out your semen♥
+Hoora♥ Cum♥ Cum♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;I'll grind you up with my boobs♥
+Squeeze squeeze♥
+Squish squish squish♥</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;What's this? You're cumming?
+Ahaa♥ Are you really cumming?
+Ahahahahaha!</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Of course♥ You just couldn't resist♥
+Then, I'm going to squeeze you dry with my tits♥</t>
+  </si>
+  <si>
+    <t>Witch Lamia</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hah, I don't believe this.
+To think some low-level succubus could ever shrink me...</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;Hot in there, isn't it?
+When I put an orc in there, they all cum
+themselves to death. How do you like it?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -333,28 +593,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -644,395 +917,563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:A73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="B13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B57" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B58" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B72" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>